--- a/medicine/Enfance/William_E._Huntsberry/William_E._Huntsberry.xlsx
+++ b/medicine/Enfance/William_E._Huntsberry/William_E._Huntsberry.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">William E. Huntsberry, né le 13 décembre 1916 à Cleveland, dans l'État de l'Ohio, et mort le 6 mai 1999 à Kailua-Kona, à Hawaï, est un professeur de littérature et un écrivain américain, auteur de roman policier.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est professeur de littérature américaine à l'Université d'Hawaï et un spécialiste de John Steinbeck.
-À temps perdu, il écrit et publie quelques romans policiers, notamment Le Crâne d'Oscar (Oscar Mooney's Head, 1961), où « un journaliste enquête sur le meurtre d'un homme dont le crâne a été découvert dans le ventre d'un requin. »[1] L'action de ce roman se déroule principalement à Honolulu.
+À temps perdu, il écrit et publie quelques romans policiers, notamment Le Crâne d'Oscar (Oscar Mooney's Head, 1961), où « un journaliste enquête sur le meurtre d'un homme dont le crâne a été découvert dans le ventre d'un requin. » L'action de ce roman se déroule principalement à Honolulu.
 </t>
         </is>
       </c>
@@ -545,14 +559,87 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Harbor of the Little Boats: A Novel of Suspense (1958), édité sous le titre Dangerous Harbour en Angleterre
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Harbor of the Little Boats: A Novel of Suspense (1958), édité sous le titre Dangerous Harbour en Angleterre
 Oscar Mooney's Head (1961), édité sous le titre Whose Head? en Angleterre Publié en français sous le titre Le Crâne d'Oscar, traduit par Jane Fillion, Paris, Gallimard, Série noire no 726, 1962
-The Big Hang-Up (1970)
-Ouvrage de littérature d'enfance et de jeunesse
-The Big Wheels (1967)
-Essai
-John Steinbeck and the Naturalist Tradition (1949)</t>
+The Big Hang-Up (1970)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>William_E._Huntsberry</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/William_E._Huntsberry</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Ouvrage de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>The Big Wheels (1967)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>William_E._Huntsberry</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/William_E._Huntsberry</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Essai</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>John Steinbeck and the Naturalist Tradition (1949)</t>
         </is>
       </c>
     </row>
